--- a/pageTest/TestSheet-LuxiLiao.xlsx
+++ b/pageTest/TestSheet-LuxiLiao.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11114"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="65" documentId="11_359339DF4752505454352EBF148CC56A1484539F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7226848-ADC4-D44A-B581-43A7A360820D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DD21C5-2580-A04E-AB7C-3AA5927669B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" tabRatio="496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Details" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Details!$A$1:$L$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Details!$A$1:$L$42</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -178,7 +178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="74">
   <si>
     <t>Notes</t>
   </si>
@@ -381,10 +381,25 @@
     <t>test in Android</t>
   </si>
   <si>
-    <t>The HTML data picker does not show in earlier version of IE</t>
-  </si>
-  <si>
-    <t>test in Linux (ubuntu)</t>
+    <t>All required fields are included</t>
+  </si>
+  <si>
+    <t>The HTML data picker does not show in earlier version of Edge, but date still input correctly</t>
+  </si>
+  <si>
+    <t>Required Widgets are functional</t>
+  </si>
+  <si>
+    <t>Error Messages reflects input errors accurately.</t>
+  </si>
+  <si>
+    <t>IE does not correctly display validation messages correctly.</t>
+  </si>
+  <si>
+    <t>test in Linux (Ubuntu 20.04)</t>
+  </si>
+  <si>
+    <t>User cannot submit form with missing data in required fields or invalid data</t>
   </si>
 </sst>
 </file>
@@ -1225,10 +1240,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="E8" zoomScale="162" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1337,33 +1352,29 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="E5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="3"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>2</v>
@@ -1383,7 +1394,7 @@
       <c r="C7" s="4"/>
       <c r="D7" s="3"/>
       <c r="E7" s="2" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>2</v>
@@ -1397,13 +1408,13 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="3"/>
       <c r="E8" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>2</v>
@@ -1412,22 +1423,18 @@
       <c r="H8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="64" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="3"/>
       <c r="E9" s="2" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>2</v>
@@ -1436,8 +1443,12 @@
       <c r="H9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
@@ -1446,8 +1457,12 @@
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="10"/>
+      <c r="E10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>2</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="14" t="s">
         <v>10</v>
@@ -1457,7 +1472,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1465,25 +1480,19 @@
       <c r="E11" s="2"/>
       <c r="F11" s="10"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="14"/>
+      <c r="H11" s="14" t="s">
+        <v>10</v>
+      </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>43</v>
-      </c>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="3"/>
       <c r="E12" s="2"/>
       <c r="F12" s="10"/>
       <c r="G12" s="2"/>
@@ -1493,21 +1502,23 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>2</v>
-      </c>
+    <row r="13" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="10"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="14" t="s">
-        <v>10</v>
-      </c>
+      <c r="H13" s="14"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -1519,15 +1530,11 @@
       <c r="C14" s="4"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>2</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="F14" s="10"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="14" t="s">
-        <v>10</v>
-      </c>
+      <c r="H14" s="14"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -1539,7 +1546,7 @@
       <c r="C15" s="4"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>2</v>
@@ -1559,7 +1566,7 @@
       <c r="C16" s="4"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>2</v>
@@ -1573,37 +1580,41 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="10"/>
+      <c r="E17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>2</v>
+      </c>
       <c r="G17" s="2"/>
-      <c r="H17" s="14"/>
+      <c r="H17" s="14" t="s">
+        <v>10</v>
+      </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="10"/>
+    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>2</v>
+      </c>
       <c r="G18" s="2"/>
-      <c r="H18" s="14"/>
+      <c r="H18" s="14" t="s">
+        <v>10</v>
+      </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -1615,10 +1626,10 @@
       <c r="C19" s="4"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="14" t="s">
@@ -1629,15 +1640,21 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="10"/>
+      <c r="E20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>2</v>
+      </c>
       <c r="G20" s="2"/>
-      <c r="H20" s="14"/>
+      <c r="H20" s="14" t="s">
+        <v>10</v>
+      </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -1657,146 +1674,118 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-    </row>
-    <row r="23" spans="1:12" ht="144" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="10" t="s">
-        <v>2</v>
-      </c>
+      <c r="F23" s="10"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="H23" s="14"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
-      <c r="D24" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="F24" s="10" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>53</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
-      <c r="D25" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="10" t="s">
-        <v>2</v>
-      </c>
+      <c r="F25" s="10"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="14" t="s">
-        <v>28</v>
-      </c>
+      <c r="H25" s="14"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
-      <c r="D26" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="10" t="s">
-        <v>2</v>
-      </c>
+      <c r="F26" s="10"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="14" t="s">
-        <v>28</v>
-      </c>
+      <c r="H26" s="14"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:12" ht="80" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-    </row>
-    <row r="28" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
+    <row r="27" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+    </row>
+    <row r="28" spans="1:12" ht="144" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="D28" s="2" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="10" t="s">
@@ -1806,37 +1795,45 @@
       <c r="H28" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
+      <c r="I28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="64" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
-      <c r="D29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="E29" s="2"/>
-      <c r="F29" s="10"/>
+      <c r="F29" s="10" t="s">
+        <v>2</v>
+      </c>
       <c r="G29" s="2"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
+      <c r="H29" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:12" ht="32" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>60</v>
+    <row r="30" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="10" t="s">
@@ -1855,8 +1852,8 @@
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
-      <c r="D31" s="4" t="s">
-        <v>61</v>
+      <c r="D31" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="10" t="s">
@@ -1871,12 +1868,12 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="80" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
-      <c r="D32" s="4" t="s">
-        <v>63</v>
+      <c r="D32" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="10" t="s">
@@ -1886,8 +1883,12 @@
       <c r="H32" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
+      <c r="I32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
@@ -1895,8 +1896,8 @@
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
-      <c r="D33" s="4" t="s">
-        <v>64</v>
+      <c r="D33" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="10" t="s">
@@ -1911,32 +1912,32 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
-      <c r="D34" s="2" t="s">
-        <v>68</v>
-      </c>
+      <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="10" t="s">
-        <v>2</v>
-      </c>
+      <c r="F34" s="10"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="14" t="s">
-        <v>28</v>
-      </c>
+      <c r="H34" s="14"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="2" t="s">
-        <v>66</v>
+    <row r="35" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="10" t="s">
@@ -1946,41 +1947,41 @@
       <c r="H35" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
+      <c r="I35" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
-      <c r="D36" s="2"/>
+      <c r="D36" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="E36" s="2"/>
-      <c r="F36" s="10"/>
+      <c r="F36" s="10" t="s">
+        <v>2</v>
+      </c>
       <c r="G36" s="2"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
+      <c r="H36" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="1:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>31</v>
-      </c>
+    <row r="37" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" s="2"/>
       <c r="F37" s="10" t="s">
         <v>2</v>
       </c>
@@ -1993,36 +1994,34 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
-      <c r="D38" s="2"/>
+      <c r="D38" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="E38" s="2"/>
-      <c r="F38" s="10"/>
+      <c r="F38" s="10" t="s">
+        <v>2</v>
+      </c>
       <c r="G38" s="2"/>
-      <c r="H38" s="14"/>
+      <c r="H38" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="1:12" ht="64" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>33</v>
-      </c>
+    <row r="39" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
       <c r="D39" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>35</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="E39" s="2"/>
       <c r="F39" s="10" t="s">
         <v>2</v>
       </c>
@@ -2035,8 +2034,112 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
+    <row r="40" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G44" s="2"/>
+      <c r="H44" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="K9:K11 H2:H11 H16:H39">
+  <conditionalFormatting sqref="K10:K12 H2:H12 H18:H44">
     <cfRule type="cellIs" dxfId="35" priority="30" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
@@ -2047,7 +2150,7 @@
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K11 K16:K39">
+  <conditionalFormatting sqref="K2:K12 K18:K44">
     <cfRule type="cellIs" dxfId="32" priority="28" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
@@ -2067,7 +2170,7 @@
       <formula>"Withdrawn"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H13">
+  <conditionalFormatting sqref="H13:H15">
     <cfRule type="cellIs" dxfId="26" priority="21" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
@@ -2078,7 +2181,7 @@
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:K13">
+  <conditionalFormatting sqref="K13:K15">
     <cfRule type="cellIs" dxfId="23" priority="19" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
@@ -2098,7 +2201,7 @@
       <formula>"Withdrawn"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
+  <conditionalFormatting sqref="H16">
     <cfRule type="cellIs" dxfId="17" priority="12" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
@@ -2109,7 +2212,7 @@
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14">
+  <conditionalFormatting sqref="K16">
     <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
@@ -2129,7 +2232,7 @@
       <formula>"Withdrawn"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
+  <conditionalFormatting sqref="H17">
     <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
@@ -2140,7 +2243,7 @@
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15">
+  <conditionalFormatting sqref="K17">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>

--- a/pageTest/TestSheet-LuxiLiao.xlsx
+++ b/pageTest/TestSheet-LuxiLiao.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11114"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DD21C5-2580-A04E-AB7C-3AA5927669B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94229F3-27CB-B543-BF97-87C9BCF5D5B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" tabRatio="496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -178,7 +178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="76">
   <si>
     <t>Notes</t>
   </si>
@@ -336,12 +336,6 @@
     <t>spinner widget only shows valid values</t>
   </si>
   <si>
-    <t>A considerable number of style are not displayed correctly, inlcuding button and transparent effect. Some jQuery Validation messages are not correctly displayed as well (lacking style)</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
     <t>Most styles displayed, some have issue including background blending.</t>
   </si>
   <si>
@@ -390,23 +384,35 @@
     <t>Required Widgets are functional</t>
   </si>
   <si>
-    <t>Error Messages reflects input errors accurately.</t>
-  </si>
-  <si>
-    <t>IE does not correctly display validation messages correctly.</t>
-  </si>
-  <si>
     <t>test in Linux (Ubuntu 20.04)</t>
   </si>
   <si>
-    <t>User cannot submit form with missing data in required fields or invalid data</t>
+    <t>Error Messages should reflect input errors accurately.</t>
+  </si>
+  <si>
+    <t>User should not be able to submit form with missing data in required fields or invalid data</t>
+  </si>
+  <si>
+    <t>Page display should meet minimum viewable standard and allow user to properly read the page and intereact with it, on current platform.</t>
+  </si>
+  <si>
+    <t>Page display should meet minimum viewable standard and allow user to properly read the page and intereact with it.</t>
+  </si>
+  <si>
+    <t>A considerable number of style are not displayed correctly, inlcuding button and transparent effect. Some jQuery Validation messages are not correctly displayed as well (inappropriate style)</t>
+  </si>
+  <si>
+    <t>Effects like hovering does not work, unless with mouse connected</t>
+  </si>
+  <si>
+    <t>Effects like hovering does not work, even with mouse connected</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -440,6 +446,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -467,7 +479,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -514,11 +526,163 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="51">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -1240,10 +1404,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E8" zoomScale="162" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="119" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1357,12 +1521,16 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="9"/>
+      <c r="E5" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>2</v>
+      </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="13"/>
+      <c r="H5" s="14" t="s">
+        <v>10</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1439,16 +1607,14 @@
       <c r="F9" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="H9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
@@ -1472,7 +1638,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1480,9 +1646,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="10"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="14" t="s">
-        <v>10</v>
-      </c>
+      <c r="H11" s="14"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -1530,11 +1694,15 @@
       <c r="C14" s="4"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" s="10"/>
+        <v>67</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>2</v>
+      </c>
       <c r="G14" s="2"/>
-      <c r="H14" s="14"/>
+      <c r="H14" s="14" t="s">
+        <v>10</v>
+      </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -1620,13 +1788,13 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>2</v>
@@ -1646,7 +1814,7 @@
       <c r="C20" s="4"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>2</v>
@@ -1774,7 +1942,7 @@
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
     </row>
-    <row r="28" spans="1:12" ht="144" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="128" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>24</v>
       </c>
@@ -1787,24 +1955,24 @@
       <c r="D28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="2"/>
+      <c r="E28" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="F28" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G28" s="2"/>
+      <c r="G28" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="H28" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="I28" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1815,16 +1983,13 @@
       <c r="F29" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G29" s="2"/>
+      <c r="G29" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="H29" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="I29" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
@@ -1853,7 +2018,7 @@
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="10" t="s">
@@ -1873,22 +2038,19 @@
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G32" s="2"/>
+      <c r="G32" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="H32" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="I32" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
@@ -1897,7 +2059,7 @@
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="10" t="s">
@@ -1928,18 +2090,20 @@
     </row>
     <row r="35" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E35" s="2"/>
+      <c r="E35" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="F35" s="10" t="s">
         <v>2</v>
       </c>
@@ -1947,12 +2111,7 @@
       <c r="H35" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="I35" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
@@ -1961,7 +2120,7 @@
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="10" t="s">
@@ -1974,18 +2133,20 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G37" s="2"/>
+      <c r="G37" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="H37" s="14" t="s">
         <v>28</v>
       </c>
@@ -1999,7 +2160,7 @@
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="10" t="s">
@@ -2019,7 +2180,7 @@
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="10" t="s">
@@ -2034,18 +2195,20 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G40" s="2"/>
+      <c r="G40" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="H40" s="14" t="s">
         <v>28</v>
       </c>
@@ -2138,129 +2301,245 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F46" s="17"/>
+      <c r="H46" s="14"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F47" s="17"/>
+      <c r="H47" s="14"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F48" s="17"/>
+      <c r="H48" s="14"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F49" s="17"/>
+      <c r="H49" s="14"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F50" s="17"/>
+      <c r="H50" s="14"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F51" s="17"/>
+      <c r="H51" s="14"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F53" s="17"/>
+      <c r="H53" s="14"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F54" s="17"/>
+      <c r="H54" s="14"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F55" s="17"/>
+      <c r="H55" s="14"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F56" s="17"/>
+      <c r="H56" s="14"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F57" s="17"/>
+      <c r="H57" s="14"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F58" s="17"/>
+      <c r="H58" s="14"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F59" s="17"/>
+      <c r="H59" s="14"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="18"/>
+      <c r="F61" s="17"/>
+      <c r="H61" s="14"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F62" s="17"/>
+      <c r="H62" s="14"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="K10:K12 H2:H12 H18:H44">
-    <cfRule type="cellIs" dxfId="35" priority="30" operator="equal">
+  <conditionalFormatting sqref="K10:K12 H18:H44 H2:H12">
+    <cfRule type="cellIs" dxfId="50" priority="45" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="46" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="47" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K12 K18:K44">
-    <cfRule type="cellIs" dxfId="32" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="43" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="44" operator="equal">
       <formula>"Issue"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="48" operator="equal">
       <formula>"Raised"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="49" operator="equal">
       <formula>"Fixed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="50" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="51" operator="equal">
       <formula>"Withdrawn"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:H15">
-    <cfRule type="cellIs" dxfId="26" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="36" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="37" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="38" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13:K15">
-    <cfRule type="cellIs" dxfId="23" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="34" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="35" operator="equal">
       <formula>"Issue"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="39" operator="equal">
       <formula>"Raised"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="40" operator="equal">
       <formula>"Fixed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="41" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="42" operator="equal">
       <formula>"Withdrawn"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="17" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="27" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="28" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="29" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16">
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="25" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="26" operator="equal">
       <formula>"Issue"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
       <formula>"Raised"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="31" operator="equal">
       <formula>"Fixed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="32" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="33" operator="equal">
       <formula>"Withdrawn"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="18" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="19" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="20" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
       <formula>"Issue"</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
+      <formula>"Raised"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="22" operator="equal">
+      <formula>"Fixed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="23" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="24" operator="equal">
+      <formula>"Withdrawn"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H46:H51">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H53:H56">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H57:H59">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H61">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
-      <formula>"Raised"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
-      <formula>"Fixed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
-      <formula>"Closed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
-      <formula>"Withdrawn"</formula>
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H62">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
